--- a/__docs__/database-structure.xlsx
+++ b/__docs__/database-structure.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="colls-docs" sheetId="1" r:id="rId1"/>
+    <sheet name="rules" sheetId="2" r:id="rId2"/>
+    <sheet name="processes" sheetId="3" r:id="rId3"/>
+    <sheet name="email-pass" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="78">
   <si>
     <t>basics</t>
   </si>
@@ -194,12 +195,120 @@
   <si>
     <t>@todo –missing vars</t>
   </si>
+  <si>
+    <t>Superadmin</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Documents</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>places</t>
+  </si>
+  <si>
+    <t>CRUD</t>
+  </si>
+  <si>
+    <t>CRU where auth == users/uid</t>
+  </si>
+  <si>
+    <t>CRU where auth == challengeResponse/owner</t>
+  </si>
+  <si>
+    <t>CRUD where auth == appProfile/owner</t>
+  </si>
+  <si>
+    <t>CRUD where auth == phone/owner</t>
+  </si>
+  <si>
+    <t>CRUD where auth == place/owner</t>
+  </si>
+  <si>
+    <t>challengeResponses</t>
+  </si>
+  <si>
+    <t>init  - At client account creation</t>
+  </si>
+  <si>
+    <t>create an auth with an email</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>create a user with details</t>
+  </si>
+  <si>
+    <t>users/${auth.uid}</t>
+  </si>
+  <si>
+    <t>${auth.uid}</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>user uid</t>
+  </si>
+  <si>
+    <t>create a default profile for this user</t>
+  </si>
+  <si>
+    <t>appProfiles/rngFBUid</t>
+  </si>
+  <si>
+    <t>{ name: 'Fidelitas', uid: ${auth.uid}, roles: { superadmin: false, admin: true…}</t>
+  </si>
+  <si>
+    <t>{ name: 'default profile', owner: ${auth.uid}, settings: { quiso: true, nfc: false}}</t>
+  </si>
+  <si>
+    <t>R where auth == users/uid</t>
+  </si>
+  <si>
+    <t>R where auth == challengeResponse/owner</t>
+  </si>
+  <si>
+    <t>R where auth == place/owner</t>
+  </si>
+  <si>
+    <t>R where auth == phone/owner</t>
+  </si>
+  <si>
+    <t>R where auth == appProfile/owner</t>
+  </si>
+  <si>
+    <t>RU where auth == phone/owner</t>
+  </si>
+  <si>
+    <t>superadmin</t>
+  </si>
+  <si>
+    <t>superadminpw</t>
+  </si>
+  <si>
+    <t>superadmin@ocp.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,13 +348,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -319,10 +456,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -337,6 +475,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,6 +492,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -366,6 +510,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -384,8 +529,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,33 +846,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="5"/>
-    <col min="3" max="3" width="37.5703125" style="5" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="5"/>
-    <col min="6" max="6" width="21.7109375" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="2" width="9.140625" style="6"/>
+    <col min="3" max="3" width="37.5703125" style="6" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" style="6"/>
+    <col min="6" max="6" width="21.7109375" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -719,218 +880,218 @@
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="18" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="10"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="10"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="10"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="12"/>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="2"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="12"/>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="10"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="10"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="10"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+      <c r="C18" s="9"/>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="16" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>16</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="2"/>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="15" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="8"/>
+      <c r="C24" s="9"/>
     </row>
     <row r="25" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="3"/>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -939,14 +1100,19 @@
       <c r="B27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="3"/>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -965,24 +1131,250 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="44.7109375" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="42.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C2" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8" style="11" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D3" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="C6" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>